--- a/Data/Language.xlsx
+++ b/Data/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045C670-427D-41DA-B7A6-B811310F4B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC37F0-7088-4967-9461-904B8B1608C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B58" t="s">
         <v>51</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B61" t="s">
         <v>52</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B63" t="s">
         <v>53</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B65" t="s">
         <v>54</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B66" t="s">
         <v>55</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B69" t="s">
         <v>56</v>
